--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Bregma</t>
   </si>
@@ -196,30 +196,14 @@
 _____</t>
   </si>
   <si>
-    <t>(Lambda_Y)-(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
     <t>(Bregma_Z)-0.0 =
  _____</t>
   </si>
   <si>
-    <t>(Bregma_X)+(1.5*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
     <t>(Lambda_X)-(1.5*adjust_ratio) =
  _____</t>
   </si>
   <si>
-    <t>(Bregma_Y)-(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)+(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
     <t>(Bregma_Z)-0.7 =
 _____</t>
   </si>
@@ -234,12 +218,6 @@
     <t>EMG/EEG-Ch3&amp;6</t>
   </si>
   <si>
-    <t>(Bregma_X)+(1.5*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(2.0*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>Sex:</t>
   </si>
   <si>
@@ -261,12 +239,6 @@
     <t>Pinout</t>
   </si>
   <si>
-    <t>RM1/EEG-Ch1</t>
-  </si>
-  <si>
-    <t>LM1/EEG-Ch2</t>
-  </si>
-  <si>
     <t>1st in Loc5</t>
   </si>
   <si>
@@ -279,14 +251,41 @@
     <t>0.5/30g mouse</t>
   </si>
   <si>
-    <t xml:space="preserve">(Bregma_X)+(1.1*adjust_ratio) =
-</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(2.0*adjust_ratio) =</t>
-  </si>
-  <si>
     <t>0.1mL/30g mouse</t>
+  </si>
+  <si>
+    <t>RPC/EEG-Ch1</t>
+  </si>
+  <si>
+    <t>LPC/EEG-Ch2</t>
+  </si>
+  <si>
+    <t>(Bregma_X)-(2.0*adjust_ratio) =
+_____</t>
+  </si>
+  <si>
+    <t>(Bregma_X)-(2.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)+(1.5) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)-(1.5) =
+ _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(1.5) =
+_____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(1.5) = _____</t>
+  </si>
+  <si>
+    <t>nuchal</t>
+  </si>
+  <si>
+    <t>Genotype:</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,9 +1047,14 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="1" t="s">
@@ -1060,10 +1064,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1090,10 +1094,10 @@
     </row>
     <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1109,7 @@
     </row>
     <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1154,13 +1158,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
@@ -1180,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1201,34 +1205,34 @@
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -1236,53 +1240,53 @@
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="62" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="11">
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>17</v>
@@ -1291,30 +1295,26 @@
         <v>4</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11">
         <v>5</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G26" s="5">
         <v>0</v>
@@ -1325,7 +1325,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1335,7 +1335,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
-          <objectPr defaultSize="0" dde="1" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1339,15 +1339,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1295400</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>203200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -162,9 +162,6 @@
     <t>DoB:</t>
   </si>
   <si>
-    <t>(Bregma_Z)-0.0 = _____</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">COORDINATES assuming </t>
     </r>
@@ -192,26 +189,6 @@
     <t>__________</t>
   </si>
   <si>
-    <t>(Lambda_X)-(1.5*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.0 =
- _____</t>
-  </si>
-  <si>
-    <t>(Lambda_X)-(1.5*adjust_ratio) =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.7 =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_Z)-0.0 =
-_____</t>
-  </si>
-  <si>
     <t xml:space="preserve">EEG screws to pin tail (1.5cm) </t>
   </si>
   <si>
@@ -260,32 +237,55 @@
     <t>LPC/EEG-Ch2</t>
   </si>
   <si>
-    <t>(Bregma_X)-(2.0*adjust_ratio) =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_X)-(2.0*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)+(1.5) =
- _____</t>
-  </si>
-  <si>
-    <t>(Lambda_Y)-(1.5) =
- _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(1.5) =
-_____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(1.5) = _____</t>
-  </si>
-  <si>
     <t>nuchal</t>
   </si>
   <si>
     <t>Genotype:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_X)-(2.0) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Y)+(1.5) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Z)-0.0 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Z)-0.7 =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Y)-(1.5) =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_X)-(2.0) =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Lambda_X)-(1.5) =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Lambda_Y)-(1.5) =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Z)-0.0 =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bregma_Z)-0.0 =
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Lambda_Y)+(1.5) =
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Lambda_X)-(1.5) =
+</t>
   </si>
 </sst>
 </file>
@@ -576,16 +576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>132619</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>170719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>670982</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146048</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1725082</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,8 +609,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9436099" y="132619"/>
-          <a:ext cx="1509183" cy="1029429"/>
+          <a:off x="5003799" y="678719"/>
+          <a:ext cx="1521883" cy="1029429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -647,15 +647,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>254000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>196850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1007,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1025,100 +1025,93 @@
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="1">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="D12" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1158,13 +1151,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
@@ -1172,19 +1165,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1193,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="14">
         <v>0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1214,99 +1207,97 @@
         <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E24" s="11">
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E25" s="11">
         <v>4</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -1314,11 +1305,9 @@
         <v>5</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1328,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -1347,7 +1336,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
+                <xdr:rowOff>196850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -648,8 +648,8 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>254000</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -1007,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1328,15 +1328,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>196850</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Bregma</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Sex:</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Done?</t>
   </si>
   <si>
@@ -286,6 +283,15 @@
   <si>
     <t xml:space="preserve">(Lambda_X)-(1.5) =
 </t>
+  </si>
+  <si>
+    <t>Drill Sequence</t>
+  </si>
+  <si>
+    <t>Implant Sequence</t>
+  </si>
+  <si>
+    <t>KOREY KAM</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -647,15 +671,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>25400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1333500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -697,21 +721,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A19:G26"/>
-  <sortState ref="A20:F27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:H24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A17:H24"/>
+  <sortState ref="A18:F25">
     <sortCondition ref="D6:D14"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="6"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
-    <tableColumn id="5" name="Sequence" dataDxfId="2"/>
-    <tableColumn id="6" name="Done?" dataDxfId="1"/>
-    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Location" dataDxfId="7"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="6"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="5" name="Drill Sequence" dataDxfId="3"/>
+    <tableColumn id="8" name="Implant Sequence" dataDxfId="0"/>
+    <tableColumn id="6" name="Done?" dataDxfId="2"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1005,10 +1030,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1042,7 @@
     <col min="2" max="2" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1025,7 +1050,7 @@
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1061,11 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1049,14 +1077,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="D12" s="1">
         <v>30</v>
       </c>
@@ -1084,12 +1112,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1100,20 +1128,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1121,200 +1149,208 @@
       <c r="E16" s="15"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14">
+    <row r="23" spans="1:8" ht="31" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="11">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="11">
-        <v>4</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11">
-        <v>5</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="25" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1323,27 +1359,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>25400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>6350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -441,11 +441,7 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -473,7 +469,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -732,9 +732,9 @@
     <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="5"/>
     <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="4"/>
     <tableColumn id="5" name="Drill Sequence" dataDxfId="3"/>
-    <tableColumn id="8" name="Implant Sequence" dataDxfId="0"/>
-    <tableColumn id="6" name="Done?" dataDxfId="2"/>
-    <tableColumn id="7" name="Pinout" dataDxfId="1"/>
+    <tableColumn id="8" name="Implant Sequence" dataDxfId="2"/>
+    <tableColumn id="6" name="Done?" dataDxfId="1"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1032,7 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1359,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1379,7 +1379,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Bregma</t>
   </si>
@@ -198,12 +198,6 @@
     <t>Sex:</t>
   </si>
   <si>
-    <t>Done?</t>
-  </si>
-  <si>
-    <t>¨</t>
-  </si>
-  <si>
     <t>O2 flow (L/min)</t>
   </si>
   <si>
@@ -211,15 +205,6 @@
   </si>
   <si>
     <t>Pinout</t>
-  </si>
-  <si>
-    <t>1st in Loc5</t>
-  </si>
-  <si>
-    <t>2nd in Loc2</t>
-  </si>
-  <si>
-    <t>3rd in Loc1</t>
   </si>
   <si>
     <t>0.5/30g mouse</t>
@@ -292,6 +277,149 @@
   </si>
   <si>
     <t>KOREY KAM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1st in Loc5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3rd in Loc1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2nd in Loc2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -356,15 +484,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,13 +548,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -438,21 +560,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -721,19 +829,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:H24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A17:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A17:G24"/>
   <sortState ref="A18:F25">
     <sortCondition ref="D6:D14"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Location" dataDxfId="7"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="6"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="4"/>
-    <tableColumn id="5" name="Drill Sequence" dataDxfId="3"/>
-    <tableColumn id="8" name="Implant Sequence" dataDxfId="2"/>
-    <tableColumn id="6" name="Done?" dataDxfId="1"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
+    <tableColumn id="5" name="Drill Sequence" dataDxfId="2"/>
+    <tableColumn id="8" name="Implant Sequence" dataDxfId="1"/>
     <tableColumn id="7" name="Pinout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1032,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B13" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1079,7 +1186,7 @@
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1092,10 +1199,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -1133,10 +1240,10 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1145,11 +1252,11 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -1162,20 +1269,17 @@
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
@@ -1188,16 +1292,13 @@
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>0</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="F18" s="12"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1210,145 +1311,125 @@
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="F19" s="12"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11">
-        <v>4</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="31" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="31" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="31" x14ac:dyDescent="0.45">
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="11">
-        <v>5</v>
-      </c>
-      <c r="F24" s="11">
-        <v>5</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -1139,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B13" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1445,15 +1445,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
+                <xdr:colOff>107950</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>158750</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -779,15 +779,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1333500</xdr:colOff>
+          <xdr:colOff>1409700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1137,10 +1137,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1168,11 +1168,11 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1184,14 +1184,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="D12" s="1">
         <v>30</v>
       </c>
@@ -1219,12 +1219,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1248,7 +1248,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1440,27 +1440,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>107950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1409700</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
+++ b/_Experiments/_Surgery/_templates/Implant_3chan_RL-PC-EMG_KK01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koreykam/Documents/GitHub/KamLab/_Experiments/_Surgery/_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F783162-83FE-1A45-A71B-4DBDCF1E66B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="12220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -25,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Bregma</t>
   </si>
@@ -425,11 +431,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -511,11 +517,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,35 +649,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -573,7 +723,55 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -592,6 +790,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -606,6 +824,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -620,6 +858,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -634,6 +892,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -648,6 +926,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -662,6 +960,54 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thick">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thick">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -676,20 +1022,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,7 +1053,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 4" descr="happy rodent head.tif"/>
+        <xdr:cNvPr id="9" name="Picture 4" descr="happy rodent head.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -781,13 +1119,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>254000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1409700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -796,11 +1134,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s8203"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B200000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -808,6 +1149,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -829,19 +1181,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A17:G24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A17:G24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A17:G24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A18:F25">
     <sortCondition ref="D6:D14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="6"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
-    <tableColumn id="5" name="Drill Sequence" dataDxfId="2"/>
-    <tableColumn id="8" name="Implant Sequence" dataDxfId="1"/>
-    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Location" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Drill Sequence" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Implant Sequence" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pinout" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,31 +1485,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1184,14 +1536,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="33.5" customHeight="1"/>
+    <row r="10" spans="1:8" ht="13"/>
+    <row r="11" spans="1:8" ht="13">
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="13">
       <c r="D12" s="1">
         <v>30</v>
       </c>
@@ -1219,12 +1571,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="62.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="13">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="16">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1248,190 +1600,186 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:7" ht="35" thickBot="1">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" ht="39" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="44" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="12">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="5"/>
+    <row r="20" spans="1:7" ht="53" thickTop="1" thickBot="1">
+      <c r="A20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
+    <row r="21" spans="1:7" ht="53" thickTop="1" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36" thickTop="1" thickBot="1">
+      <c r="A22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G22" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" thickTop="1" thickBot="1">
+      <c r="A23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>52</v>
-      </c>
+    <row r="24" spans="1:7" ht="35" thickTop="1">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="24"/>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="61" customHeight="1"/>
+    <row r="26" spans="1:7" ht="13"/>
+    <row r="27" spans="1:7" ht="13"/>
+    <row r="36" ht="13"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" copies="6" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1447,13 +1795,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
+                <xdr:rowOff>254000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1409700</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
